--- a/function/list.xlsx
+++ b/function/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ldallara\Documents\ArgoX3mobile\CORE\function\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\function\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93505ACC-E17B-4C1F-A4B3-76D08FA48DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EB5ABF-5D99-4666-A213-1F9A28B5B487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Elenco funzioni" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Codice</t>
   </si>
   <si>
     <t>Descrizione</t>
+  </si>
+  <si>
+    <t>Cod Att</t>
+  </si>
+  <si>
+    <t>Tipo Funzione</t>
+  </si>
+  <si>
+    <t>Cod Azione</t>
+  </si>
+  <si>
+    <t>YSMR</t>
+  </si>
+  <si>
+    <t>YAX3M*</t>
+  </si>
+  <si>
+    <t>Programma</t>
+  </si>
+  <si>
+    <t>YSMO</t>
+  </si>
+  <si>
+    <t>YSOH</t>
+  </si>
+  <si>
+    <t>YCALCGIAC</t>
+  </si>
+  <si>
+    <t>YBPC</t>
+  </si>
+  <si>
+    <t>YVSOH</t>
+  </si>
+  <si>
+    <t>YVBPC</t>
+  </si>
+  <si>
+    <t>Entrate diverse</t>
+  </si>
+  <si>
+    <t>Uscite diverse</t>
+  </si>
+  <si>
+    <t>Calcolo Giacenza</t>
+  </si>
+  <si>
+    <t>Cliente, Creazione Cliente</t>
+  </si>
+  <si>
+    <t>Ricerca OdV</t>
+  </si>
+  <si>
+    <t>Ordini di Vendita, OdV</t>
+  </si>
+  <si>
+    <t>Ricerca Cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,6 +110,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -62,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -70,16 +134,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -357,23 +535,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="89.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="53.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
